--- a/2nd_sem/582_structurePerdiction/hw2/工作簿1.xlsx
+++ b/2nd_sem/582_structurePerdiction/hw2/工作簿1.xlsx
@@ -4075,16 +4075,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.86571366688325702</c:v>
+                  <c:v>0.95971410006497704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93545592376001696</c:v>
+                  <c:v>0.999133636560537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93350660602122504</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91552956465237101</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4661,16 +4661,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.52749948885708398</c:v>
+                  <c:v>0.580453894909016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62502555714577801</c:v>
+                  <c:v>0.65978327540380199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64812921692905301</c:v>
+                  <c:v>0.672050705377223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64935595992639505</c:v>
+                  <c:v>0.67491310570435403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10043,15 +10043,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.73540802213001299</v>
       </c>
@@ -10106,10 +10106,10 @@
         <v>0.95971410006497704</v>
       </c>
       <c r="T2">
-        <v>0.86571366688325702</v>
+        <v>0.95971410006497704</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.76071922544951498</v>
       </c>
@@ -10144,10 +10144,10 @@
         <v>0.96166341780376796</v>
       </c>
       <c r="T3">
-        <v>0.93545592376001696</v>
+        <v>0.999133636560537</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.76652835408022102</v>
       </c>
@@ -10182,10 +10182,10 @@
         <v>0.93177387914230003</v>
       </c>
       <c r="T4">
-        <v>0.93350660602122504</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.76652835408022102</v>
       </c>
@@ -10220,10 +10220,10 @@
         <v>0.89885206844271104</v>
       </c>
       <c r="T5">
-        <v>0.91552956465237101</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.76334716459197705</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>0.72796188000866302</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.76694329183955701</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>0.737925059562486</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.76694329183955701</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>0.72059779077322905</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.72493786246893099</v>
       </c>
@@ -10338,10 +10338,10 @@
         <v>0.580453894909016</v>
       </c>
       <c r="T10">
-        <v>0.52749948885708398</v>
+        <v>0.580453894909016</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.74882629107981202</v>
       </c>
@@ -10376,10 +10376,10 @@
         <v>0.65855653240645995</v>
       </c>
       <c r="T11">
-        <v>0.62502555714577801</v>
+        <v>0.65978327540380199</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.75490196078431304</v>
       </c>
@@ -10414,10 +10414,10 @@
         <v>0.67082396237988096</v>
       </c>
       <c r="T12">
-        <v>0.64812921692905301</v>
+        <v>0.672050705377223</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.75490196078431304</v>
       </c>
@@ -10452,10 +10452,13 @@
         <v>0.64383561643835596</v>
       </c>
       <c r="T13">
-        <v>0.64935595992639505</v>
+        <v>0.67491310570435403</v>
+      </c>
+      <c r="Y13">
+        <v>0.95971410006497704</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.74910245788456198</v>
       </c>
@@ -10474,8 +10477,11 @@
       <c r="K14">
         <v>0.54712737681455703</v>
       </c>
+      <c r="Y14">
+        <v>0.580453894909016</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.75421154377243804</v>
       </c>
@@ -10494,8 +10500,11 @@
       <c r="K15">
         <v>0.53772234716826794</v>
       </c>
+      <c r="Y15">
+        <v>0.999133636560537</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.75421154377243804</v>
       </c>
@@ -10514,38 +10523,59 @@
       <c r="K16">
         <v>0.51564097321611102</v>
       </c>
+      <c r="Y16">
+        <v>0.65978327540380199</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y18">
+        <v>0.672050705377223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
+      <c r="Y20">
+        <v>0.67491310570435403</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>100</v>
       </c>
@@ -10559,7 +10589,7 @@
         <v>0.73540802213001299</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P27">
         <v>0.72493786246893099</v>
       </c>
@@ -10570,7 +10600,7 @@
         <v>0.72493786246893099</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P28">
         <v>0.79280774550484001</v>
       </c>
@@ -10581,7 +10611,7 @@
         <v>0.76058091286306995</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P29">
         <v>0.76222038111018997</v>
       </c>
@@ -10592,7 +10622,7 @@
         <v>0.73847003590168403</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P30">
         <v>0.79239280774550402</v>
       </c>
@@ -10603,7 +10633,7 @@
         <v>0.75615491009681801</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P31">
         <v>0.75283070974868804</v>
       </c>
@@ -10614,7 +10644,7 @@
         <v>0.72687103010218101</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P32">
         <v>0.80484094052558697</v>
       </c>

--- a/2nd_sem/582_structurePerdiction/hw2/工作簿1.xlsx
+++ b/2nd_sem/582_structurePerdiction/hw2/工作簿1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yang\Desktop\cs_academic\cs_2016_fall\2nd_sem\582_structurePerdiction\hw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo_000\Desktop\cs_git\2nd_sem\582_structurePerdiction\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,22 +309,22 @@
                   <c:v>0.72655601659751001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72268326417703999</c:v>
+                  <c:v>0.73665283540802196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71521438450899</c:v>
+                  <c:v>0.76141078838174203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68948824343015203</c:v>
+                  <c:v>0.74426002766251698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68603042876901799</c:v>
+                  <c:v>0.75089903181189399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47966804979253103</c:v>
+                  <c:v>0.76459197786998601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44716459197787001</c:v>
+                  <c:v>0.76694329183955701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,25 +391,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.73540802213001299</c:v>
+                  <c:v>0.72655601659751001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75670816044260003</c:v>
+                  <c:v>0.72710926694329103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74896265560165898</c:v>
+                  <c:v>0.710511756569847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72005532503457803</c:v>
+                  <c:v>0.72213001383125797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70954356846472999</c:v>
+                  <c:v>0.74315352697095405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16500691562932199</c:v>
+                  <c:v>0.77731673582295902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16085753803596101</c:v>
+                  <c:v>0.76694329183955701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,6 +544,8 @@
         <c:axId val="451477808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.78"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -951,22 +953,22 @@
                   <c:v>0.709058271195802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71168185584092702</c:v>
+                  <c:v>0.71568627450980304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70132560066280003</c:v>
+                  <c:v>0.73667495167080899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68516984258492097</c:v>
+                  <c:v>0.72176194421430495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66694283347141603</c:v>
+                  <c:v>0.73902236951118405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49185307925987298</c:v>
+                  <c:v>0.74868820767743705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44918530792598699</c:v>
+                  <c:v>0.75421154377243804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,25 +1035,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.72493786246893099</c:v>
+                  <c:v>0.709058271195802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72618061309030602</c:v>
+                  <c:v>0.71913835956917904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73667495167080899</c:v>
+                  <c:v>0.70229218447942499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70643468655067598</c:v>
+                  <c:v>0.70091135045567499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69801159900579901</c:v>
+                  <c:v>0.72659486329743095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15741507870753901</c:v>
+                  <c:v>0.75683512841756395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.155758077879038</c:v>
+                  <c:v>0.75421154377243804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,6 +1188,7 @@
         <c:axId val="451477808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1589,22 +1592,22 @@
                   <c:v>0.95971410006497704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86008230452674805</c:v>
+                  <c:v>0.91054797487546002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80008663634394594</c:v>
+                  <c:v>0.91011479315572796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79727095516569202</c:v>
+                  <c:v>0.88217457223305096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7574182369504</c:v>
+                  <c:v>0.88477366255143997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71085120207927199</c:v>
+                  <c:v>0.87459389213775096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66580030322720296</c:v>
+                  <c:v>0.85250162443144895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,25 +1674,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.86571366688325702</c:v>
+                  <c:v>0.95971410006497704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76759800736408901</c:v>
+                  <c:v>0.85098548841238897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.739657786441412</c:v>
+                  <c:v>0.76673164392462601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72081438163309497</c:v>
+                  <c:v>0.76933073424301401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72796188000866302</c:v>
+                  <c:v>0.74442278535845696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.737925059562486</c:v>
+                  <c:v>0.72233051765215495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72059779077322905</c:v>
+                  <c:v>0.70933506606021202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,22 +2231,22 @@
                   <c:v>0.580453894909016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52157023103659705</c:v>
+                  <c:v>0.5250460028624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53649560417092601</c:v>
+                  <c:v>0.53445103250868897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53915354733183396</c:v>
+                  <c:v>0.53179308934778102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52831731752197897</c:v>
+                  <c:v>0.54181149049274102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52381925986505795</c:v>
+                  <c:v>0.54630954814966204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49826211408709797</c:v>
+                  <c:v>0.53322428951134704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,25 +2313,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.52749948885708398</c:v>
+                  <c:v>0.580453894909016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54078920466162295</c:v>
+                  <c:v>0.54794520547945202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54549171948476705</c:v>
+                  <c:v>0.53608668983847796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54487834798609602</c:v>
+                  <c:v>0.548149662645675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54712737681455703</c:v>
+                  <c:v>0.54753629114700397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53772234716826794</c:v>
+                  <c:v>0.54978531997546498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51564097321611102</c:v>
+                  <c:v>0.53547331833980705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,13 +2844,13 @@
                   <c:v>0.72655601659751001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77579529737205999</c:v>
+                  <c:v>0.77634854771784201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77897648686030396</c:v>
+                  <c:v>0.78741355463347096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78962655601659704</c:v>
+                  <c:v>0.80470262793914205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2905,16 +2908,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.73540802213001299</c:v>
+                  <c:v>0.72655601659751001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76058091286306995</c:v>
+                  <c:v>0.77413554633471604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75615491009681801</c:v>
+                  <c:v>0.78630705394190803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75076071922544896</c:v>
+                  <c:v>0.77648686030428704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3426,13 +3429,13 @@
                   <c:v>0.709058271195802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74468378900856103</c:v>
+                  <c:v>0.75352112676056304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.755868544600939</c:v>
+                  <c:v>0.75849212924606402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76360121513393997</c:v>
+                  <c:v>0.76912455122894197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3490,16 +3493,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.72493786246893099</c:v>
+                  <c:v>0.709058271195802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73847003590168403</c:v>
+                  <c:v>0.748964374482187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72687103010218101</c:v>
+                  <c:v>0.75200220933443795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72866611433305695</c:v>
+                  <c:v>0.749654791494062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4011,13 +4014,13 @@
                   <c:v>0.95971410006497704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96166341780376796</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93177387914230003</c:v>
+                  <c:v>0.99891704570067097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89885206844271104</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,13 +4600,13 @@
                   <c:v>0.580453894909016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65855653240645995</c:v>
+                  <c:v>0.66366796156205199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67082396237988096</c:v>
+                  <c:v>0.67491310570435403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64383561643835596</c:v>
+                  <c:v>0.675935391535473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10045,13 +10048,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10071,7 +10074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.73540802213001299</v>
       </c>
@@ -10079,7 +10082,7 @@
         <v>0.72655601659751001</v>
       </c>
       <c r="E2">
-        <v>0.73540802213001299</v>
+        <v>0.72655601659751001</v>
       </c>
       <c r="G2">
         <v>0.86571366688325702</v>
@@ -10088,7 +10091,7 @@
         <v>0.95971410006497704</v>
       </c>
       <c r="K2">
-        <v>0.86571366688325702</v>
+        <v>0.95971410006497704</v>
       </c>
       <c r="N2">
         <v>0.73540802213001299</v>
@@ -10097,7 +10100,7 @@
         <v>0.72655601659751001</v>
       </c>
       <c r="P2">
-        <v>0.73540802213001299</v>
+        <v>0.72655601659751001</v>
       </c>
       <c r="R2">
         <v>0.86571366688325702</v>
@@ -10109,181 +10112,181 @@
         <v>0.95971410006497704</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.76071922544951498</v>
       </c>
       <c r="C3">
-        <v>0.72268326417703999</v>
+        <v>0.73665283540802196</v>
       </c>
       <c r="E3">
-        <v>0.75670816044260003</v>
+        <v>0.72710926694329103</v>
       </c>
       <c r="G3">
         <v>0.85011912497292597</v>
       </c>
       <c r="I3">
-        <v>0.86008230452674805</v>
+        <v>0.91054797487546002</v>
       </c>
       <c r="K3">
-        <v>0.76759800736408901</v>
+        <v>0.85098548841238897</v>
       </c>
       <c r="N3">
         <v>0.79280774550484001</v>
       </c>
       <c r="O3">
-        <v>0.77579529737205999</v>
+        <v>0.77634854771784201</v>
       </c>
       <c r="P3">
-        <v>0.76058091286306995</v>
+        <v>0.77413554633471604</v>
       </c>
       <c r="R3">
         <v>0.99047000216590797</v>
       </c>
       <c r="S3">
-        <v>0.96166341780376796</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0.999133636560537</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.76652835408022102</v>
       </c>
       <c r="C4">
-        <v>0.71521438450899</v>
+        <v>0.76141078838174203</v>
       </c>
       <c r="E4">
-        <v>0.74896265560165898</v>
+        <v>0.710511756569847</v>
       </c>
       <c r="G4">
         <v>0.85011912497292597</v>
       </c>
       <c r="I4">
-        <v>0.80008663634394594</v>
+        <v>0.91011479315572796</v>
       </c>
       <c r="K4">
-        <v>0.739657786441412</v>
+        <v>0.76673164392462601</v>
       </c>
       <c r="N4">
         <v>0.79239280774550402</v>
       </c>
       <c r="O4">
-        <v>0.77897648686030396</v>
+        <v>0.78741355463347096</v>
       </c>
       <c r="P4">
-        <v>0.75615491009681801</v>
+        <v>0.78630705394190803</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.93177387914230003</v>
+        <v>0.99891704570067097</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.76652835408022102</v>
       </c>
       <c r="C5">
-        <v>0.68948824343015203</v>
+        <v>0.74426002766251698</v>
       </c>
       <c r="E5">
-        <v>0.72005532503457803</v>
+        <v>0.72213001383125797</v>
       </c>
       <c r="G5">
         <v>0.85011912497292597</v>
       </c>
       <c r="I5">
-        <v>0.79727095516569202</v>
+        <v>0.88217457223305096</v>
       </c>
       <c r="K5">
-        <v>0.72081438163309497</v>
+        <v>0.76933073424301401</v>
       </c>
       <c r="N5">
         <v>0.80484094052558697</v>
       </c>
       <c r="O5">
-        <v>0.78962655601659704</v>
+        <v>0.80470262793914205</v>
       </c>
       <c r="P5">
-        <v>0.75076071922544896</v>
+        <v>0.77648686030428704</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>0.89885206844271104</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.76334716459197705</v>
       </c>
       <c r="C6">
-        <v>0.68603042876901799</v>
+        <v>0.75089903181189399</v>
       </c>
       <c r="E6">
-        <v>0.70954356846472999</v>
+        <v>0.74315352697095405</v>
       </c>
       <c r="G6">
         <v>0.84210526315789402</v>
       </c>
       <c r="I6">
-        <v>0.7574182369504</v>
+        <v>0.88477366255143997</v>
       </c>
       <c r="K6">
-        <v>0.72796188000866302</v>
+        <v>0.74442278535845696</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.76694329183955701</v>
       </c>
       <c r="C7">
-        <v>0.47966804979253103</v>
+        <v>0.76459197786998601</v>
       </c>
       <c r="E7">
-        <v>0.16500691562932199</v>
+        <v>0.77731673582295902</v>
       </c>
       <c r="G7">
         <v>0.84210526315789402</v>
       </c>
       <c r="I7">
-        <v>0.71085120207927199</v>
+        <v>0.87459389213775096</v>
       </c>
       <c r="K7">
-        <v>0.737925059562486</v>
+        <v>0.72233051765215495</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.76694329183955701</v>
       </c>
       <c r="C8">
-        <v>0.44716459197787001</v>
+        <v>0.76694329183955701</v>
       </c>
       <c r="E8">
-        <v>0.16085753803596101</v>
+        <v>0.76694329183955701</v>
       </c>
       <c r="G8">
         <v>0.87242798353909401</v>
       </c>
       <c r="I8">
-        <v>0.66580030322720296</v>
+        <v>0.85250162443144895</v>
       </c>
       <c r="K8">
-        <v>0.72059779077322905</v>
+        <v>0.70933506606021202</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -10303,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.72493786246893099</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>0.709058271195802</v>
       </c>
       <c r="E10">
-        <v>0.72493786246893099</v>
+        <v>0.709058271195802</v>
       </c>
       <c r="G10">
         <v>0.52749948885708398</v>
@@ -10320,7 +10323,7 @@
         <v>0.580453894909016</v>
       </c>
       <c r="K10">
-        <v>0.52749948885708398</v>
+        <v>0.580453894909016</v>
       </c>
       <c r="N10">
         <v>0.72493786246893099</v>
@@ -10329,7 +10332,7 @@
         <v>0.709058271195802</v>
       </c>
       <c r="P10">
-        <v>0.72493786246893099</v>
+        <v>0.709058271195802</v>
       </c>
       <c r="R10">
         <v>0.52749948885708398</v>
@@ -10341,241 +10344,319 @@
         <v>0.580453894909016</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.74882629107981202</v>
       </c>
       <c r="C11">
-        <v>0.71168185584092702</v>
+        <v>0.71568627450980304</v>
       </c>
       <c r="E11">
-        <v>0.72618061309030602</v>
+        <v>0.71913835956917904</v>
       </c>
       <c r="G11">
         <v>0.53485994684113602</v>
       </c>
       <c r="I11">
-        <v>0.52157023103659705</v>
+        <v>0.5250460028624</v>
       </c>
       <c r="K11">
-        <v>0.54078920466162295</v>
+        <v>0.54794520547945202</v>
       </c>
       <c r="N11">
         <v>0.76222038111018997</v>
       </c>
       <c r="O11">
-        <v>0.74468378900856103</v>
+        <v>0.75352112676056304</v>
       </c>
       <c r="P11">
-        <v>0.73847003590168403</v>
+        <v>0.748964374482187</v>
       </c>
       <c r="R11">
         <v>0.63708852995297405</v>
       </c>
       <c r="S11">
-        <v>0.65855653240645995</v>
+        <v>0.66366796156205199</v>
       </c>
       <c r="T11">
         <v>0.65978327540380199</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75490196078431304</v>
       </c>
       <c r="C12">
-        <v>0.70132560066280003</v>
+        <v>0.73667495167080899</v>
       </c>
       <c r="E12">
-        <v>0.73667495167080899</v>
+        <v>0.70229218447942499</v>
       </c>
       <c r="G12">
         <v>0.53485994684113602</v>
       </c>
       <c r="I12">
-        <v>0.53649560417092601</v>
+        <v>0.53445103250868897</v>
       </c>
       <c r="K12">
-        <v>0.54549171948476705</v>
+        <v>0.53608668983847796</v>
       </c>
       <c r="N12">
         <v>0.75283070974868804</v>
       </c>
       <c r="O12">
-        <v>0.755868544600939</v>
+        <v>0.75849212924606402</v>
       </c>
       <c r="P12">
-        <v>0.72687103010218101</v>
+        <v>0.75200220933443795</v>
       </c>
       <c r="R12">
         <v>0.67041504804743401</v>
       </c>
       <c r="S12">
-        <v>0.67082396237988096</v>
+        <v>0.67491310570435403</v>
       </c>
       <c r="T12">
         <v>0.672050705377223</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.75490196078431304</v>
       </c>
       <c r="C13">
-        <v>0.68516984258492097</v>
+        <v>0.72176194421430495</v>
       </c>
       <c r="E13">
-        <v>0.70643468655067598</v>
+        <v>0.70091135045567499</v>
       </c>
       <c r="G13">
         <v>0.53485994684113602</v>
       </c>
       <c r="I13">
-        <v>0.53915354733183396</v>
+        <v>0.53179308934778102</v>
       </c>
       <c r="K13">
-        <v>0.54487834798609602</v>
+        <v>0.548149662645675</v>
       </c>
       <c r="N13">
         <v>0.77575255454294301</v>
       </c>
       <c r="O13">
-        <v>0.76360121513393997</v>
+        <v>0.76912455122894197</v>
       </c>
       <c r="P13">
-        <v>0.72866611433305695</v>
+        <v>0.749654791494062</v>
       </c>
       <c r="R13">
         <v>0.67695767736659096</v>
       </c>
       <c r="S13">
-        <v>0.64383561643835596</v>
+        <v>0.675935391535473</v>
       </c>
       <c r="T13">
         <v>0.67491310570435403</v>
       </c>
+      <c r="W13">
+        <v>0.72655601659751001</v>
+      </c>
+      <c r="X13">
+        <v>0.72655601659751001</v>
+      </c>
       <c r="Y13">
-        <v>0.95971410006497704</v>
+        <v>0.72655601659751001</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.74910245788456198</v>
       </c>
       <c r="C14">
-        <v>0.66694283347141603</v>
+        <v>0.73902236951118405</v>
       </c>
       <c r="E14">
-        <v>0.69801159900579901</v>
+        <v>0.72659486329743095</v>
       </c>
       <c r="G14">
         <v>0.53833571866693897</v>
       </c>
       <c r="I14">
-        <v>0.52831731752197897</v>
+        <v>0.54181149049274102</v>
       </c>
       <c r="K14">
-        <v>0.54712737681455703</v>
+        <v>0.54753629114700397</v>
+      </c>
+      <c r="W14">
+        <v>0.709058271195802</v>
+      </c>
+      <c r="X14">
+        <v>0.709058271195802</v>
       </c>
       <c r="Y14">
-        <v>0.580453894909016</v>
+        <v>0.709058271195802</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.75421154377243804</v>
       </c>
       <c r="C15">
-        <v>0.49185307925987298</v>
+        <v>0.74868820767743705</v>
       </c>
       <c r="E15">
-        <v>0.15741507870753901</v>
+        <v>0.75683512841756395</v>
       </c>
       <c r="G15">
         <v>0.53833571866693897</v>
       </c>
       <c r="I15">
-        <v>0.52381925986505795</v>
+        <v>0.54630954814966204</v>
       </c>
       <c r="K15">
-        <v>0.53772234716826794</v>
+        <v>0.54978531997546498</v>
+      </c>
+      <c r="W15">
+        <v>0.72710926694329103</v>
+      </c>
+      <c r="X15">
+        <v>0.73665283540802196</v>
       </c>
       <c r="Y15">
-        <v>0.999133636560537</v>
+        <v>0.77634854771784201</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.75421154377243804</v>
       </c>
       <c r="C16">
-        <v>0.44918530792598699</v>
+        <v>0.75421154377243804</v>
       </c>
       <c r="E16">
-        <v>0.155758077879038</v>
+        <v>0.75421154377243804</v>
       </c>
       <c r="G16">
         <v>0.54794520547945202</v>
       </c>
       <c r="I16">
-        <v>0.49826211408709797</v>
+        <v>0.53322428951134704</v>
       </c>
       <c r="K16">
-        <v>0.51564097321611102</v>
+        <v>0.53547331833980705</v>
+      </c>
+      <c r="W16">
+        <v>0.71913835956917904</v>
+      </c>
+      <c r="X16">
+        <v>0.71568627450980304</v>
       </c>
       <c r="Y16">
-        <v>0.65978327540380199</v>
+        <v>0.75352112676056304</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>0.710511756569847</v>
+      </c>
+      <c r="X17">
+        <v>0.76141078838174203</v>
+      </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0.78741355463347096</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>0.70229218447942499</v>
+      </c>
+      <c r="X18">
+        <v>0.73667495167080899</v>
+      </c>
       <c r="Y18">
-        <v>0.672050705377223</v>
+        <v>0.75849212924606402</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>0.72213001383125797</v>
+      </c>
+      <c r="X19">
+        <v>0.74426002766251698</v>
+      </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0.80470262793914205</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
+      <c r="W20">
+        <v>0.70091135045567499</v>
+      </c>
+      <c r="X20">
+        <v>0.72176194421430495</v>
+      </c>
       <c r="Y20">
-        <v>0.67491310570435403</v>
+        <v>0.76912455122894197</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
+      <c r="W21">
+        <v>0.74315352697095405</v>
+      </c>
+      <c r="X21">
+        <v>0.75089903181189399</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
+      <c r="W22">
+        <v>0.72659486329743095</v>
+      </c>
+      <c r="X22">
+        <v>0.73902236951118405</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
+      <c r="W23">
+        <v>0.77731673582295902</v>
+      </c>
+      <c r="X23">
+        <v>0.76459197786998601</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
+      <c r="W24">
+        <v>0.75683512841756395</v>
+      </c>
+      <c r="X24">
+        <v>0.74868820767743705</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
+      <c r="W25">
+        <v>0.76694329183955701</v>
+      </c>
+      <c r="X25">
+        <v>0.76694329183955701</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>100</v>
       </c>
@@ -10588,8 +10669,14 @@
       <c r="R26">
         <v>0.73540802213001299</v>
       </c>
+      <c r="W26">
+        <v>0.75421154377243804</v>
+      </c>
+      <c r="X26">
+        <v>0.75421154377243804</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P27">
         <v>0.72493786246893099</v>
       </c>
@@ -10600,7 +10687,7 @@
         <v>0.72493786246893099</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P28">
         <v>0.79280774550484001</v>
       </c>
@@ -10611,7 +10698,7 @@
         <v>0.76058091286306995</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>0.76222038111018997</v>
       </c>
@@ -10622,7 +10709,7 @@
         <v>0.73847003590168403</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>0.79239280774550402</v>
       </c>
@@ -10633,7 +10720,7 @@
         <v>0.75615491009681801</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>0.75283070974868804</v>
       </c>
@@ -10644,7 +10731,7 @@
         <v>0.72687103010218101</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P32">
         <v>0.80484094052558697</v>
       </c>
@@ -10655,7 +10742,7 @@
         <v>0.75076071922544896</v>
       </c>
     </row>
-    <row r="33" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P33">
         <v>0.77575255454294301</v>
       </c>
@@ -10666,7 +10753,7 @@
         <v>0.72866611433305695</v>
       </c>
     </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P35">
         <v>0.86571366688325702</v>
       </c>
@@ -10677,7 +10764,7 @@
         <v>0.86571366688325702</v>
       </c>
     </row>
-    <row r="36" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P36">
         <v>0.52749948885708398</v>
       </c>
@@ -10688,7 +10775,7 @@
         <v>0.52749948885708398</v>
       </c>
     </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P37">
         <v>0.99047000216590797</v>
       </c>
@@ -10699,7 +10786,7 @@
         <v>0.93545592376001696</v>
       </c>
     </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P38">
         <v>0.63708852995297405</v>
       </c>
@@ -10710,7 +10797,7 @@
         <v>0.62502555714577801</v>
       </c>
     </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P39">
         <v>1</v>
       </c>
@@ -10721,7 +10808,7 @@
         <v>0.93350660602122504</v>
       </c>
     </row>
-    <row r="40" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P40">
         <v>0.67041504804743401</v>
       </c>
@@ -10732,7 +10819,7 @@
         <v>0.64812921692905301</v>
       </c>
     </row>
-    <row r="41" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P41">
         <v>1</v>
       </c>
@@ -10743,7 +10830,7 @@
         <v>0.91552956465237101</v>
       </c>
     </row>
-    <row r="42" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P42">
         <v>0.67695767736659096</v>
       </c>
